--- a/test-cases/Sku/SKU.xlsx
+++ b/test-cases/Sku/SKU.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD284291-AA74-4E88-8F0C-3E439A980D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +67,6 @@
     <t xml:space="preserve">1.Click on Sku and then Add Sku,       2.Fill all the mandatory fields and save </t>
   </si>
   <si>
-    <t>SKU _002</t>
-  </si>
-  <si>
     <t xml:space="preserve">SKU list </t>
   </si>
   <si>
@@ -88,12 +86,15 @@
   </si>
   <si>
     <t xml:space="preserve">user should able to delete and it should not display in the list. </t>
+  </si>
+  <si>
+    <t>SKU _001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +583,7 @@
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -613,18 +614,18 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -634,18 +635,18 @@
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="12"/>
     </row>
